--- a/teaching/traditional_assets/database/data/hong_kong/hong_kong_aerospace_defense.xlsx
+++ b/teaching/traditional_assets/database/data/hong_kong/hong_kong_aerospace_defense.xlsx
@@ -590,23 +590,26 @@
           <t>Aerospace/Defense</t>
         </is>
       </c>
+      <c r="D2">
+        <v>-0.05769999999999999</v>
+      </c>
       <c r="G2">
-        <v>-2.83206106870229</v>
+        <v>-1.408928571428572</v>
       </c>
       <c r="H2">
-        <v>-3.740458015267176</v>
+        <v>-2.232142857142857</v>
       </c>
       <c r="I2">
-        <v>-2.769100738021299</v>
+        <v>-1.667560343469096</v>
       </c>
       <c r="J2">
-        <v>-2.769100738021299</v>
+        <v>-1.667560343469096</v>
       </c>
       <c r="K2">
-        <v>-49.5</v>
+        <v>-27.6</v>
       </c>
       <c r="L2">
-        <v>-3.778625954198473</v>
+        <v>-2.464285714285714</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>63.8</v>
+        <v>14.7</v>
       </c>
       <c r="V2">
-        <v>0.2831779849090102</v>
+        <v>0.03428171641791045</v>
       </c>
       <c r="W2">
-        <v>-0.2020408163265306</v>
+        <v>-0.1704756022235948</v>
       </c>
       <c r="X2">
-        <v>0.09437801737744003</v>
+        <v>0.06915004822062507</v>
       </c>
       <c r="Y2">
-        <v>-0.2964188337039707</v>
+        <v>-0.2396256504442199</v>
       </c>
       <c r="Z2">
-        <v>0.06293807472167841</v>
+        <v>0.06740962536991101</v>
       </c>
       <c r="AA2">
-        <v>-0.1742818691614393</v>
+        <v>-0.1124096180349719</v>
       </c>
       <c r="AB2">
-        <v>0.08225514426652515</v>
+        <v>0.06352004328524176</v>
       </c>
       <c r="AC2">
-        <v>-0.2565370134279645</v>
+        <v>-0.1759296613202136</v>
       </c>
       <c r="AD2">
-        <v>67.90000000000001</v>
+        <v>64.2</v>
       </c>
       <c r="AE2">
-        <v>0.731098340395042</v>
+        <v>0.1483792342693489</v>
       </c>
       <c r="AF2">
-        <v>68.63109834039504</v>
+        <v>64.34837923426934</v>
       </c>
       <c r="AG2">
-        <v>4.831098340395044</v>
+        <v>49.64837923426934</v>
       </c>
       <c r="AH2">
-        <v>0.2334938314724184</v>
+        <v>0.1304848235214431</v>
       </c>
       <c r="AI2">
-        <v>0.2910180159587518</v>
+        <v>0.3564051890533702</v>
       </c>
       <c r="AJ2">
-        <v>0.02099280964300268</v>
+        <v>0.1037695630064185</v>
       </c>
       <c r="AK2">
-        <v>0.02808270357511659</v>
+        <v>0.2993600508096522</v>
       </c>
       <c r="AL2">
-        <v>3.73</v>
+        <v>2.68</v>
       </c>
       <c r="AM2">
-        <v>3.284</v>
+        <v>2.68</v>
       </c>
       <c r="AN2">
-        <v>-1.983698033830962</v>
+        <v>-3.810767495696563</v>
       </c>
       <c r="AO2">
-        <v>-9.812332439678285</v>
+        <v>-7.014925373134329</v>
       </c>
       <c r="AP2">
-        <v>-0.1411405048466225</v>
+        <v>-2.947016040497972</v>
       </c>
       <c r="AQ2">
-        <v>-11.14494518879416</v>
+        <v>-7.014925373134329</v>
       </c>
     </row>
     <row r="3">
@@ -715,23 +718,26 @@
           <t>Aerospace/Defense</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.05769999999999999</v>
+      </c>
       <c r="G3">
-        <v>-2.83206106870229</v>
+        <v>-1.408928571428572</v>
       </c>
       <c r="H3">
-        <v>-3.740458015267176</v>
+        <v>-2.232142857142857</v>
       </c>
       <c r="I3">
-        <v>-2.769100738021299</v>
+        <v>-1.667560343469096</v>
       </c>
       <c r="J3">
-        <v>-2.769100738021299</v>
+        <v>-1.667560343469096</v>
       </c>
       <c r="K3">
-        <v>-49.5</v>
+        <v>-27.6</v>
       </c>
       <c r="L3">
-        <v>-3.778625954198473</v>
+        <v>-2.464285714285714</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>63.8</v>
+        <v>14.7</v>
       </c>
       <c r="V3">
-        <v>0.2831779849090102</v>
+        <v>0.03428171641791045</v>
       </c>
       <c r="W3">
-        <v>-0.2020408163265306</v>
+        <v>-0.1704756022235948</v>
       </c>
       <c r="X3">
-        <v>0.09437801737744003</v>
+        <v>0.06915004822062507</v>
       </c>
       <c r="Y3">
-        <v>-0.2964188337039707</v>
+        <v>-0.2396256504442199</v>
       </c>
       <c r="Z3">
-        <v>0.06293807472167841</v>
+        <v>0.06740962536991101</v>
       </c>
       <c r="AA3">
-        <v>-0.1742818691614393</v>
+        <v>-0.1124096180349719</v>
       </c>
       <c r="AB3">
-        <v>0.08225514426652515</v>
+        <v>0.06352004328524176</v>
       </c>
       <c r="AC3">
-        <v>-0.2565370134279645</v>
+        <v>-0.1759296613202136</v>
       </c>
       <c r="AD3">
-        <v>67.90000000000001</v>
+        <v>64.2</v>
       </c>
       <c r="AE3">
-        <v>0.731098340395042</v>
+        <v>0.1483792342693489</v>
       </c>
       <c r="AF3">
-        <v>68.63109834039504</v>
+        <v>64.34837923426934</v>
       </c>
       <c r="AG3">
-        <v>4.831098340395044</v>
+        <v>49.64837923426934</v>
       </c>
       <c r="AH3">
-        <v>0.2334938314724184</v>
+        <v>0.1304848235214431</v>
       </c>
       <c r="AI3">
-        <v>0.2910180159587518</v>
+        <v>0.3564051890533702</v>
       </c>
       <c r="AJ3">
-        <v>0.02099280964300268</v>
+        <v>0.1037695630064185</v>
       </c>
       <c r="AK3">
-        <v>0.02808270357511659</v>
+        <v>0.2993600508096522</v>
       </c>
       <c r="AL3">
-        <v>3.73</v>
+        <v>2.68</v>
       </c>
       <c r="AM3">
-        <v>3.284</v>
+        <v>2.68</v>
       </c>
       <c r="AN3">
-        <v>-1.983698033830962</v>
+        <v>-3.810767495696563</v>
       </c>
       <c r="AO3">
-        <v>-9.812332439678285</v>
+        <v>-7.014925373134329</v>
       </c>
       <c r="AP3">
-        <v>-0.1411405048466225</v>
+        <v>-2.947016040497972</v>
       </c>
       <c r="AQ3">
-        <v>-11.14494518879416</v>
+        <v>-7.014925373134329</v>
       </c>
     </row>
   </sheetData>
